--- a/Aurora/Process/PTW-Timesheet-23.xlsx
+++ b/Aurora/Process/PTW-Timesheet-23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aspire-Team Aurora project\Project\Aurora\Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D29016F-C408-41A2-80EF-A7DCEA9F6AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C316B68-00D8-48AE-9C0A-EF966592280E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="44" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="279">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1090,6 +1090,9 @@
 3.30-5.00 Activity with Training department
 5.00-5.30 Break
 5.30-6.00 Discussion with team </t>
+  </si>
+  <si>
+    <t>1hr 30 mins</t>
   </si>
 </sst>
 </file>
@@ -3413,7 +3416,7 @@
   <dimension ref="E7:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3645,8 +3648,12 @@
       <c r="H20" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
+      <c r="I20" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="J20" s="48" t="s">
+        <v>278</v>
+      </c>
       <c r="K20" s="49" t="s">
         <v>60</v>
       </c>
